--- a/robot-automation-login/report/report-excel/report-excel.xlsx
+++ b/robot-automation-login/report/report-excel/report-excel.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
       <c r="E2" s="3" t="n"/>
